--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value14.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value14.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.500263403341797</v>
+        <v>4.069363594055176</v>
       </c>
       <c r="B1">
-        <v>1.944476773027089</v>
+        <v>6.332414150238037</v>
       </c>
       <c r="C1">
-        <v>1.980263883815767</v>
+        <v>5.245056629180908</v>
       </c>
       <c r="D1">
-        <v>2.293997210025644</v>
+        <v>6.097415447235107</v>
       </c>
       <c r="E1">
-        <v>0.8898666609261923</v>
+        <v>4.667911529541016</v>
       </c>
     </row>
   </sheetData>
